--- a/COGA_GenFundHist_Mar.xlsx
+++ b/COGA_GenFundHist_Mar.xlsx
@@ -1,256 +1,263 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Interns-Fellowships\Alexis 2020\GDP Project\GDP Data Vis\IL-Budget-Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460DA32D-5A1F-4A66-B625-8A6DA8977786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">FY 2020 APPROPRIATIONS BY AGENCY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">($ Millions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Continuing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appropriation Appropriation Reappropriations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appropriations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higher Education (cont.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Illinois University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $194.90 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$194.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$193.63 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$193.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special State Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.27 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $628.73 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$628.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$622.02 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$622.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.72 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Illinois University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $49.60 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$49.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$49.59 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$49.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.01 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Higher Education Totals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $4,258.75 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4,258.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3,587.03 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$3,587.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highway Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.00 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$357.17 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$357.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bond Financed Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt Service Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Trust Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$314.45 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$314.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revolving Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Trust Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.10 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $1,185.54 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,185.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,054.88 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1,054.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.40 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$5.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$124.91 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$124.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.35 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total $113.41 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$113.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17.23 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$17.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$81.35 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$81.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.72 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.12 $0.00 $0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FY 2020 APPROPRIATIONS BY AGENCY</t>
+  </si>
+  <si>
+    <t>($ Millions)</t>
+  </si>
+  <si>
+    <t>New Continuing</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Appropriation Appropriation Reappropriations</t>
+  </si>
+  <si>
+    <t>Appropriations</t>
+  </si>
+  <si>
+    <t>Higher Education (cont.)</t>
+  </si>
+  <si>
+    <t>Southern Illinois University</t>
+  </si>
+  <si>
+    <t>Total $194.90 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$194.90</t>
+  </si>
+  <si>
+    <t>General Funds</t>
+  </si>
+  <si>
+    <t>$193.63 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$193.63</t>
+  </si>
+  <si>
+    <t>Special State Funds</t>
+  </si>
+  <si>
+    <t>$1.27 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$1.27</t>
+  </si>
+  <si>
+    <t>University of Illinois</t>
+  </si>
+  <si>
+    <t>Total $628.73 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$628.73</t>
+  </si>
+  <si>
+    <t>$622.02 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$622.02</t>
+  </si>
+  <si>
+    <t>$6.72 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$6.72</t>
+  </si>
+  <si>
+    <t>Western Illinois University</t>
+  </si>
+  <si>
+    <t>Total $49.60 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$49.60</t>
+  </si>
+  <si>
+    <t>$49.59 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$49.59</t>
+  </si>
+  <si>
+    <t>$0.01 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$0.01</t>
+  </si>
+  <si>
+    <t>Higher Education Totals</t>
+  </si>
+  <si>
+    <t>Total $4,258.75 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$4,258.75</t>
+  </si>
+  <si>
+    <t>$3,587.03 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$3,587.03</t>
+  </si>
+  <si>
+    <t>Highway Funds</t>
+  </si>
+  <si>
+    <t>$0.00 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$357.17 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$357.17</t>
+  </si>
+  <si>
+    <t>Bond Financed Funds</t>
+  </si>
+  <si>
+    <t>Debt Service Funds</t>
+  </si>
+  <si>
+    <t>Federal Trust Funds</t>
+  </si>
+  <si>
+    <t>$314.45 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$314.45</t>
+  </si>
+  <si>
+    <t>Revolving Funds</t>
+  </si>
+  <si>
+    <t>State Trust Funds</t>
+  </si>
+  <si>
+    <t>$0.10 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$0.10</t>
+  </si>
+  <si>
+    <t>Departments</t>
+  </si>
+  <si>
+    <t>Aging</t>
+  </si>
+  <si>
+    <t>Total $1,185.54 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$1,185.54</t>
+  </si>
+  <si>
+    <t>$1,054.88 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$1,054.88</t>
+  </si>
+  <si>
+    <t>$5.40 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$5.40</t>
+  </si>
+  <si>
+    <t>$124.91 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$124.91</t>
+  </si>
+  <si>
+    <t>$0.35 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$0.35</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Total $113.41 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$113.41</t>
+  </si>
+  <si>
+    <t>$17.23 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$17.23</t>
+  </si>
+  <si>
+    <t>$81.35 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$81.35</t>
+  </si>
+  <si>
+    <t>$13.72 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$13.72</t>
+  </si>
+  <si>
+    <t>$1.12 $0.00 $0.00</t>
+  </si>
+  <si>
+    <t>$1.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,6 +293,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,14 +583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -596,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -607,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -618,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -629,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -640,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -651,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -662,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -673,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -684,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -695,7 +716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -706,7 +727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -717,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -728,7 +749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -739,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -750,7 +771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -761,7 +782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -772,7 +793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -783,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -794,7 +815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -805,7 +826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -816,7 +837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -827,7 +848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -838,7 +859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -849,7 +870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -860,7 +881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -871,7 +892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -882,7 +903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -893,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -904,7 +925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -915,7 +936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -926,7 +947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -937,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -948,7 +969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -959,7 +980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -970,7 +991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -981,7 +1002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1014,7 +1035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1027,6 +1048,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>